--- a/tests/xlsx/mergeCells.xlsx
+++ b/tests/xlsx/mergeCells.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{292CAF86-1A77-4983-8B87-D9DF5802A7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D3C941-22AB-4F7F-9A8A-B543E72A9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -383,7 +381,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
